--- a/features_testing_metrics.xlsx
+++ b/features_testing_metrics.xlsx
@@ -496,13 +496,13 @@
         <v>0.5353535353535354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5398428731762065</v>
+        <v>0.5426466154078095</v>
       </c>
       <c r="G2" t="n">
         <v>0.5353535353535354</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5265738783180643</v>
+        <v>0.5204059093882475</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -526,16 +526,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5700725200725201</v>
+        <v>0.5532598714416896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5607315292914716</v>
+        <v>0.5325015476927473</v>
       </c>
       <c r="I3" t="n">
         <v>100</v>
@@ -559,16 +559,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5588512241054614</v>
+        <v>0.5488733488733488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5514403292181069</v>
+        <v>0.5403004376306098</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5661649225479013</v>
+        <v>0.5470401691331924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5653905596745241</v>
+        <v>0.5434995112414467</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.536455463728191</v>
+        <v>0.5667789001122335</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5339276562680818</v>
+        <v>0.5647687916466659</v>
       </c>
       <c r="I6" t="n">
         <v>100</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5617283950617284</v>
+        <v>0.5784916837548416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H7" t="n">
-        <v>0.547157622739018</v>
+        <v>0.5733214010490466</v>
       </c>
       <c r="I7" t="n">
         <v>90</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5488733488733488</v>
+        <v>0.5687149034499749</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5403004376306098</v>
+        <v>0.5624448241270671</v>
       </c>
       <c r="I8" t="n">
         <v>90</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5270110694837357</v>
+        <v>0.5168207498715973</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5217420170691198</v>
+        <v>0.510662177328844</v>
       </c>
       <c r="I9" t="n">
         <v>90</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5562847507064078</v>
+        <v>0.5687149034499749</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5550108932461874</v>
+        <v>0.5624448241270671</v>
       </c>
       <c r="I10" t="n">
         <v>90</v>
@@ -793,13 +793,13 @@
         <v>0.5656565656565656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5717242168855072</v>
+        <v>0.5676239135541461</v>
       </c>
       <c r="G11" t="n">
         <v>0.5656565656565656</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5586401448470414</v>
+        <v>0.563788421852938</v>
       </c>
       <c r="I11" t="n">
         <v>90</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6149903569258408</v>
+        <v>0.6008816983393255</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5996968755589445</v>
+        <v>0.5922184811073701</v>
       </c>
       <c r="I12" t="n">
         <v>80</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6216712580348944</v>
+        <v>0.5370750107592213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5948346746670476</v>
+        <v>0.5326853440060987</v>
       </c>
       <c r="I13" t="n">
         <v>80</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5378359869885294</v>
+        <v>0.495658337763601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5310512532734755</v>
+        <v>0.4920492869631508</v>
       </c>
       <c r="I14" t="n">
         <v>80</v>
@@ -925,13 +925,13 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5588512241054614</v>
+        <v>0.5617283950617284</v>
       </c>
       <c r="G15" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5514403292181069</v>
+        <v>0.547157622739018</v>
       </c>
       <c r="I15" t="n">
         <v>80</v>
@@ -958,13 +958,13 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5588512241054614</v>
+        <v>0.5577833472570315</v>
       </c>
       <c r="G16" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5514403292181069</v>
+        <v>0.5530033725275726</v>
       </c>
       <c r="I16" t="n">
         <v>80</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6085378673613967</v>
+        <v>0.5617283950617284</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5858332700437965</v>
+        <v>0.547157622739018</v>
       </c>
       <c r="I17" t="n">
         <v>70</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5500911468653404</v>
+        <v>0.5676239135541461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5381117794910898</v>
+        <v>0.563788421852938</v>
       </c>
       <c r="I18" t="n">
         <v>70</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5061591525006159</v>
+        <v>0.536455463728191</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5013906135401462</v>
+        <v>0.5339276562680818</v>
       </c>
       <c r="I19" t="n">
         <v>70</v>
@@ -1087,16 +1087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5667789001122335</v>
+        <v>0.5784916837548416</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5647687916466659</v>
+        <v>0.5733214010490466</v>
       </c>
       <c r="I20" t="n">
         <v>70</v>
@@ -1120,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5601572236602436</v>
+        <v>0.5270110694837357</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5494949494949495</v>
+        <v>0.5217420170691198</v>
       </c>
       <c r="I21" t="n">
         <v>70</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5411307646601764</v>
+        <v>0.5889868837630031</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5237082605503658</v>
+        <v>0.5621097433544868</v>
       </c>
       <c r="I22" t="n">
         <v>60</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6429121725731896</v>
+        <v>0.6216712580348944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H23" t="n">
-        <v>0.632996632996633</v>
+        <v>0.5948346746670476</v>
       </c>
       <c r="I23" t="n">
         <v>60</v>
@@ -1219,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5378359869885294</v>
+        <v>0.4960718294051628</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5310512532734755</v>
+        <v>0.4854063894761569</v>
       </c>
       <c r="I24" t="n">
         <v>60</v>
@@ -1252,16 +1252,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5577833472570315</v>
+        <v>0.5488733488733488</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5530033725275726</v>
+        <v>0.5403004376306098</v>
       </c>
       <c r="I25" t="n">
         <v>60</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4741863075196409</v>
+        <v>0.5179573512906845</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4648226450552032</v>
+        <v>0.5059901338971107</v>
       </c>
       <c r="I26" t="n">
         <v>60</v>
@@ -1318,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6180330086580086</v>
+        <v>0.5958694083694084</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5974476677235656</v>
+        <v>0.5768039583760562</v>
       </c>
       <c r="I27" t="n">
         <v>50</v>
@@ -1351,16 +1351,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5532598714416896</v>
+        <v>0.5836139169472504</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5325015476927473</v>
+        <v>0.5677413671599718</v>
       </c>
       <c r="I28" t="n">
         <v>50</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5173477658378435</v>
+        <v>0.4287855934914759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5085399449035812</v>
+        <v>0.4201665780613149</v>
       </c>
       <c r="I29" t="n">
         <v>50</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5676239135541461</v>
+        <v>0.4581930415263749</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="H30" t="n">
-        <v>0.563788421852938</v>
+        <v>0.4355717744147496</v>
       </c>
       <c r="I30" t="n">
         <v>50</v>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5068250068250069</v>
+        <v>0.4852225963337075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4970550487791867</v>
+        <v>0.4837955435809294</v>
       </c>
       <c r="I31" t="n">
         <v>50</v>
@@ -1483,16 +1483,16 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F32" t="n">
-        <v>0.625388695811231</v>
+        <v>0.6012602313972176</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6210612916495269</v>
+        <v>0.5958065503520049</v>
       </c>
       <c r="I32" t="n">
         <v>100</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5538525401539101</v>
+        <v>0.5023187540428921</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5532598714416896</v>
+        <v>0.5076515066403843</v>
       </c>
       <c r="I34" t="n">
         <v>100</v>
@@ -1615,16 +1615,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6389654116926844</v>
+        <v>0.6815120906029997</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="H36" t="n">
-        <v>0.639413311194133</v>
+        <v>0.6806232184862321</v>
       </c>
       <c r="I36" t="n">
         <v>100</v>
@@ -1648,16 +1648,16 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5775563857755638</v>
+        <v>0.6380163187943508</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5745332108968473</v>
+        <v>0.6210250654695099</v>
       </c>
       <c r="I37" t="n">
         <v>90</v>
@@ -1681,16 +1681,16 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6176920722375266</v>
+        <v>0.6262626262626262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6188083575480835</v>
+        <v>0.6245941558441559</v>
       </c>
       <c r="I38" t="n">
         <v>90</v>
@@ -1717,13 +1717,13 @@
         <v>0.5757575757575758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5507070707070707</v>
+        <v>0.5538525401539101</v>
       </c>
       <c r="G39" t="n">
         <v>0.5757575757575758</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5480551786521936</v>
+        <v>0.5532598714416896</v>
       </c>
       <c r="I39" t="n">
         <v>90</v>
@@ -1747,16 +1747,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6107138803768016</v>
+        <v>0.5608775931356577</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5399126399126399</v>
+        <v>0.4918290456047893</v>
       </c>
       <c r="I40" t="n">
         <v>90</v>
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F41" t="n">
-        <v>0.65955091714105</v>
+        <v>0.6925779534475186</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6573509297253337</v>
+        <v>0.6871617965367965</v>
       </c>
       <c r="I41" t="n">
         <v>90</v>
@@ -1813,16 +1813,16 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6518431063885609</v>
+        <v>0.625388695811231</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6294395568589117</v>
+        <v>0.6210612916495269</v>
       </c>
       <c r="I42" t="n">
         <v>80</v>
@@ -1846,16 +1846,16 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6176920722375266</v>
+        <v>0.5505625515113182</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6188083575480835</v>
+        <v>0.5535178781269499</v>
       </c>
       <c r="I43" t="n">
         <v>80</v>
@@ -1882,13 +1882,13 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5213170667716122</v>
+        <v>0.5259259259259259</v>
       </c>
       <c r="G44" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5204511912291799</v>
+        <v>0.5265339966832504</v>
       </c>
       <c r="I44" t="n">
         <v>80</v>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5622155622155622</v>
+        <v>0.5936382458121588</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5043771043771044</v>
+        <v>0.5108090913360745</v>
       </c>
       <c r="I45" t="n">
         <v>80</v>
@@ -1945,16 +1945,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6602387511478421</v>
+        <v>0.6275440976933515</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6600182648401826</v>
+        <v>0.6277056277056278</v>
       </c>
       <c r="I46" t="n">
         <v>80</v>
@@ -1978,16 +1978,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6145494352390904</v>
+        <v>0.5617906756350692</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6124065052275367</v>
+        <v>0.5560579338357117</v>
       </c>
       <c r="I47" t="n">
         <v>70</v>
@@ -2011,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5988906926406926</v>
+        <v>0.5599472990777339</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6009361911800937</v>
+        <v>0.5620265151515151</v>
       </c>
       <c r="I48" t="n">
         <v>70</v>
@@ -2044,16 +2044,16 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F49" t="n">
-        <v>0.52052936775159</v>
+        <v>0.5213170667716122</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5239106341988875</v>
+        <v>0.5204511912291799</v>
       </c>
       <c r="I49" t="n">
         <v>70</v>
@@ -2077,16 +2077,16 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5636136647372603</v>
+        <v>0.5371492704826039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5156975156975158</v>
+        <v>0.4979364941014029</v>
       </c>
       <c r="I50" t="n">
         <v>70</v>
@@ -2110,16 +2110,16 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6262626262626262</v>
+        <v>0.6176920722375266</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6245941558441559</v>
+        <v>0.6188083575480835</v>
       </c>
       <c r="I51" t="n">
         <v>70</v>
@@ -2143,16 +2143,16 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6249640770188715</v>
+        <v>0.6126077710745903</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6170798898071626</v>
+        <v>0.5993693549249105</v>
       </c>
       <c r="I52" t="n">
         <v>60</v>
@@ -2176,16 +2176,16 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5820524081393647</v>
+        <v>0.5644007644007645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5828823953823954</v>
+        <v>0.5614268772163509</v>
       </c>
       <c r="I53" t="n">
         <v>60</v>
@@ -2209,16 +2209,16 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.515970515970516</v>
+        <v>0.4884285896944125</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5186392554813607</v>
+        <v>0.4915824915824916</v>
       </c>
       <c r="I54" t="n">
         <v>60</v>
@@ -2242,16 +2242,16 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F55" t="n">
-        <v>0.542584940312213</v>
+        <v>0.5165134490977188</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5089631812320888</v>
+        <v>0.4914823914823915</v>
       </c>
       <c r="I55" t="n">
         <v>60</v>
@@ -2275,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F56" t="n">
-        <v>0.65955091714105</v>
+        <v>0.6176920722375266</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6573509297253337</v>
+        <v>0.6188083575480835</v>
       </c>
       <c r="I56" t="n">
         <v>60</v>
@@ -2308,16 +2308,16 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5112696380302014</v>
+        <v>0.6126077710745903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5158005393299511</v>
+        <v>0.5993693549249105</v>
       </c>
       <c r="I57" t="n">
         <v>50</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5472110265213713</v>
+        <v>0.5247648902821317</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5495535060752451</v>
+        <v>0.5286025063578148</v>
       </c>
       <c r="I58" t="n">
         <v>50</v>
@@ -2374,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4433251433251433</v>
+        <v>0.5102880658436214</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4544578228788755</v>
+        <v>0.5061850027367268</v>
       </c>
       <c r="I59" t="n">
         <v>50</v>
@@ -2407,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5033467202141901</v>
+        <v>0.5371492704826039</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4978761457634697</v>
+        <v>0.4979364941014029</v>
       </c>
       <c r="I60" t="n">
         <v>50</v>
@@ -2440,16 +2440,16 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5902543958099513</v>
+        <v>0.6249640770188715</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5873892163057025</v>
+        <v>0.6170798898071626</v>
       </c>
       <c r="I61" t="n">
         <v>50</v>
@@ -2476,13 +2476,13 @@
         <v>0.6060606060606061</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6063450834879406</v>
+        <v>0.6058622228834994</v>
       </c>
       <c r="G62" t="n">
         <v>0.6060606060606061</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6061410264737813</v>
+        <v>0.6058995679843916</v>
       </c>
       <c r="I62" t="n">
         <v>100</v>
@@ -2506,16 +2506,16 @@
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5659492888064316</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5657452343172461</v>
       </c>
       <c r="I63" t="n">
         <v>100</v>
@@ -2539,16 +2539,16 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6370471633629529</v>
+        <v>0.6302343399117593</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6343434343434343</v>
+        <v>0.6202703768554888</v>
       </c>
       <c r="I64" t="n">
         <v>100</v>
@@ -2572,16 +2572,16 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6053391053391054</v>
+        <v>0.6188389923329682</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5049863716530383</v>
+        <v>0.5203527815468114</v>
       </c>
       <c r="I65" t="n">
         <v>100</v>
@@ -2605,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5547201336675021</v>
+        <v>0.5649854021947045</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5530864197530864</v>
+        <v>0.5638722648068443</v>
       </c>
       <c r="I66" t="n">
         <v>100</v>
@@ -2638,16 +2638,16 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6563999303950083</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6562143530228638</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="I67" t="n">
         <v>90</v>
@@ -2671,16 +2671,16 @@
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5445107218363031</v>
+        <v>0.6265429808286951</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5435872538676277</v>
+        <v>0.626338922552049</v>
       </c>
       <c r="I68" t="n">
         <v>90</v>
@@ -2704,16 +2704,16 @@
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5772005772005772</v>
+        <v>0.6164654059390902</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5677830940988836</v>
+        <v>0.6140291806958474</v>
       </c>
       <c r="I69" t="n">
         <v>90</v>
@@ -2737,16 +2737,16 @@
         <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5552072448624172</v>
+        <v>0.6427235316124205</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4565656565656566</v>
+        <v>0.5500459136822773</v>
       </c>
       <c r="I70" t="n">
         <v>90</v>
@@ -2770,16 +2770,16 @@
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5464572192513369</v>
+        <v>0.49615632594356</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.494743351886209</v>
       </c>
       <c r="I71" t="n">
         <v>90</v>
@@ -2803,16 +2803,16 @@
         <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6265429808286951</v>
+        <v>0.5861471861471861</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H72" t="n">
-        <v>0.626338922552049</v>
+        <v>0.5859431303955137</v>
       </c>
       <c r="I72" t="n">
         <v>80</v>
@@ -2836,16 +2836,16 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5756548536209554</v>
+        <v>0.5649854021947045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5719008264462809</v>
+        <v>0.5638722648068443</v>
       </c>
       <c r="I73" t="n">
         <v>80</v>
@@ -2869,16 +2869,16 @@
         <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6529644268774702</v>
+        <v>0.5659956143827112</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6216783216783216</v>
+        <v>0.5586926001293518</v>
       </c>
       <c r="I74" t="n">
         <v>80</v>
@@ -2935,16 +2935,16 @@
         <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F76" t="n">
-        <v>0.545194167534593</v>
+        <v>0.5580246913580247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5452687322896826</v>
+        <v>0.5547385620915032</v>
       </c>
       <c r="I76" t="n">
         <v>80</v>
@@ -2968,16 +2968,16 @@
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6063450834879406</v>
+        <v>0.5854600825531058</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6061410264737813</v>
+        <v>0.5841572757460608</v>
       </c>
       <c r="I77" t="n">
         <v>70</v>
@@ -3001,16 +3001,16 @@
         <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5659492888064316</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5657452343172461</v>
       </c>
       <c r="I78" t="n">
         <v>70</v>
@@ -3034,16 +3034,16 @@
         <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6228163992869875</v>
+        <v>0.597484770047324</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6065575859520351</v>
+        <v>0.5905063928319741</v>
       </c>
       <c r="I79" t="n">
         <v>70</v>
@@ -3067,16 +3067,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5904761904761905</v>
+        <v>0.5552072448624172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="H80" t="n">
-        <v>0.489247311827957</v>
+        <v>0.4565656565656566</v>
       </c>
       <c r="I80" t="n">
         <v>70</v>
@@ -3100,16 +3100,16 @@
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5457513914656772</v>
+        <v>0.5157699443413729</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5455473382389786</v>
+        <v>0.5152504638218923</v>
       </c>
       <c r="I81" t="n">
         <v>70</v>
@@ -3133,16 +3133,16 @@
         <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6168212739641311</v>
+        <v>0.5445107218363031</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6162399505256648</v>
+        <v>0.5435872538676277</v>
       </c>
       <c r="I82" t="n">
         <v>60</v>
@@ -3166,16 +3166,16 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5854600825531058</v>
+        <v>0.5457513914656772</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5841572757460608</v>
+        <v>0.5455473382389786</v>
       </c>
       <c r="I83" t="n">
         <v>60</v>
@@ -3199,16 +3199,16 @@
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6354453627180899</v>
+        <v>0.6106331168831168</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6156148378370602</v>
+        <v>0.5974760702890614</v>
       </c>
       <c r="I84" t="n">
         <v>60</v>
@@ -3232,16 +3232,16 @@
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5090909090909091</v>
+        <v>0.5337465564738292</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4428152492668622</v>
+        <v>0.439576843917778</v>
       </c>
       <c r="I85" t="n">
         <v>60</v>
@@ -3265,16 +3265,16 @@
         <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5359802102659246</v>
+        <v>0.5856395377671973</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5354483611626468</v>
+        <v>0.5856892894194886</v>
       </c>
       <c r="I86" t="n">
         <v>60</v>
@@ -3298,16 +3298,16 @@
         <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5752066115702479</v>
+        <v>0.5856395377671973</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5745394884033111</v>
+        <v>0.5856892894194886</v>
       </c>
       <c r="I87" t="n">
         <v>50</v>
@@ -3331,16 +3331,16 @@
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5856395377671973</v>
+        <v>0.5958836485152275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5856892894194886</v>
+        <v>0.5937149270482605</v>
       </c>
       <c r="I88" t="n">
         <v>50</v>
@@ -3364,16 +3364,16 @@
         <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6257349615558571</v>
+        <v>0.6091701725504542</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6038007190549564</v>
+        <v>0.5759144508065992</v>
       </c>
       <c r="I89" t="n">
         <v>50</v>
@@ -3397,16 +3397,16 @@
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5284271284271285</v>
+        <v>0.5629553966632618</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4589385922719256</v>
+        <v>0.4462009255112703</v>
       </c>
       <c r="I90" t="n">
         <v>50</v>
@@ -3430,16 +3430,16 @@
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5910989595200121</v>
+        <v>0.6467408781694496</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5835684029232416</v>
+        <v>0.6465368186303165</v>
       </c>
       <c r="I91" t="n">
         <v>50</v>
@@ -3466,13 +3466,13 @@
         <v>0.7676767676767676</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7314135140222097</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="G92" t="n">
         <v>0.7676767676767676</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7158000714114293</v>
+        <v>0.7337954479058773</v>
       </c>
       <c r="I92" t="n">
         <v>100</v>
@@ -3529,16 +3529,16 @@
         <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6223580341227399</v>
+        <v>0.6166666666666666</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6443381180223285</v>
+        <v>0.6376390904692792</v>
       </c>
       <c r="I94" t="n">
         <v>100</v>
@@ -3595,16 +3595,16 @@
         <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7509578544061302</v>
+        <v>0.667027417027417</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7489711934156378</v>
+        <v>0.6815616249578514</v>
       </c>
       <c r="I96" t="n">
         <v>100</v>
@@ -3628,16 +3628,16 @@
         <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F97" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7509157509157508</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H97" t="n">
-        <v>0.7015610651974288</v>
+        <v>0.7329317269076305</v>
       </c>
       <c r="I97" t="n">
         <v>90</v>
@@ -3694,16 +3694,16 @@
         <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6285303843443378</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6510191727583031</v>
+        <v>0.6776859504132232</v>
       </c>
       <c r="I99" t="n">
         <v>90</v>
@@ -3760,16 +3760,16 @@
         <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6359800537015727</v>
+        <v>0.6307581307581307</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6454151908697363</v>
+        <v>0.6381461675579323</v>
       </c>
       <c r="I101" t="n">
         <v>90</v>
@@ -3793,16 +3793,16 @@
         <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7077223851417399</v>
+        <v>0.7509157509157508</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6978354978354977</v>
+        <v>0.7329317269076305</v>
       </c>
       <c r="I102" t="n">
         <v>80</v>
@@ -3826,16 +3826,16 @@
         <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7570281124497993</v>
+        <v>0.7425685425685427</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="H103" t="n">
-        <v>0.761181434599156</v>
+        <v>0.7474454266907099</v>
       </c>
       <c r="I103" t="n">
         <v>80</v>
@@ -3859,16 +3859,16 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6166666666666666</v>
+        <v>0.68344446251423</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6376390904692792</v>
+        <v>0.6960489569185221</v>
       </c>
       <c r="I104" t="n">
         <v>80</v>
@@ -3925,16 +3925,16 @@
         <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6356334428623586</v>
+        <v>0.6414473684210527</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6526275412351362</v>
+        <v>0.6526631657914478</v>
       </c>
       <c r="I106" t="n">
         <v>80</v>
@@ -3958,16 +3958,16 @@
         <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7323232323232324</v>
+        <v>0.7122877122877123</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7254361799816345</v>
+        <v>0.7086527929901424</v>
       </c>
       <c r="I107" t="n">
         <v>70</v>
@@ -3991,16 +3991,16 @@
         <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7010440539852304</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7332535885167464</v>
+        <v>0.7110247208931419</v>
       </c>
       <c r="I108" t="n">
         <v>70</v>
@@ -4027,13 +4027,13 @@
         <v>0.7171717171717171</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6515491998638065</v>
+        <v>0.6748153806977336</v>
       </c>
       <c r="G109" t="n">
         <v>0.7171717171717171</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6710143037259251</v>
+        <v>0.6887958532695374</v>
       </c>
       <c r="I109" t="n">
         <v>70</v>
@@ -4090,16 +4090,16 @@
         <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6732711732711734</v>
+        <v>0.6465958284140102</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6795008912655971</v>
+        <v>0.6513591290479163</v>
       </c>
       <c r="I111" t="n">
         <v>70</v>
@@ -4123,16 +4123,16 @@
         <v>3</v>
       </c>
       <c r="E112" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.7676767676767676</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.7323232323232324</v>
-      </c>
       <c r="G112" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H112" t="n">
-        <v>0.7254361799816345</v>
+        <v>0.7493112947658402</v>
       </c>
       <c r="I112" t="n">
         <v>60</v>
@@ -4156,16 +4156,16 @@
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7010440539852304</v>
+        <v>0.7383585406841221</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7110247208931419</v>
+        <v>0.7410787410787409</v>
       </c>
       <c r="I113" t="n">
         <v>60</v>
@@ -4189,16 +4189,16 @@
         <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6736596736596737</v>
+        <v>0.7042011019283747</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6843738590726542</v>
+        <v>0.7106472259846494</v>
       </c>
       <c r="I114" t="n">
         <v>60</v>
@@ -4255,16 +4255,16 @@
         <v>3</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6912858312858312</v>
+        <v>0.6794016110471807</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6868686868686869</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6890131281310572</v>
+        <v>0.6871310507674145</v>
       </c>
       <c r="I116" t="n">
         <v>60</v>
@@ -4288,16 +4288,16 @@
         <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7562724014336918</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="G117" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="H117" t="n">
-        <v>0.7230158730158731</v>
+        <v>0.6776859504132232</v>
       </c>
       <c r="I117" t="n">
         <v>50</v>
@@ -4321,16 +4321,16 @@
         <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F118" t="n">
-        <v>0.752591706539075</v>
+        <v>0.7570281124497993</v>
       </c>
       <c r="G118" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7579167519152515</v>
+        <v>0.761181434599156</v>
       </c>
       <c r="I118" t="n">
         <v>50</v>
@@ -4357,13 +4357,13 @@
         <v>0.7575757575757576</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7170582226762002</v>
+        <v>0.7033492822966506</v>
       </c>
       <c r="G119" t="n">
         <v>0.7575757575757576</v>
       </c>
       <c r="H119" t="n">
-        <v>0.7180122603365071</v>
+        <v>0.6852559205500381</v>
       </c>
       <c r="I119" t="n">
         <v>50</v>
@@ -4420,16 +4420,16 @@
         <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6674537583628494</v>
+        <v>0.7300275482093664</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="H121" t="n">
-        <v>0.6718674155745095</v>
+        <v>0.733392275154289</v>
       </c>
       <c r="I121" t="n">
         <v>50</v>
@@ -4453,16 +4453,16 @@
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6323768999290821</v>
+        <v>0.6175645342312008</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6022556069166238</v>
+        <v>0.5739099362912995</v>
       </c>
       <c r="I122" t="n">
         <v>100</v>
@@ -4486,16 +4486,16 @@
         <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5378022650749923</v>
+        <v>0.6284052647689011</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H123" t="n">
-        <v>0.522066756717724</v>
+        <v>0.6051855816363807</v>
       </c>
       <c r="I123" t="n">
         <v>100</v>
@@ -4519,16 +4519,16 @@
         <v>4</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5553692882460005</v>
+        <v>0.5922184811073701</v>
       </c>
       <c r="G124" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5182557280118256</v>
+        <v>0.5526054331058645</v>
       </c>
       <c r="I124" t="n">
         <v>100</v>
@@ -4585,16 +4585,16 @@
         <v>4</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5274776753037623</v>
+        <v>0.5512955643390426</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5060626475369587</v>
+        <v>0.5270812582800669</v>
       </c>
       <c r="I126" t="n">
         <v>100</v>
@@ -4618,16 +4618,16 @@
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6323768999290821</v>
+        <v>0.585590247829337</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6022556069166238</v>
+        <v>0.5603877760657421</v>
       </c>
       <c r="I127" t="n">
         <v>90</v>
@@ -4651,16 +4651,16 @@
         <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5485396955985191</v>
+        <v>0.5780885780885781</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5340254297823707</v>
+        <v>0.5709366391184573</v>
       </c>
       <c r="I128" t="n">
         <v>90</v>
@@ -4750,16 +4750,16 @@
         <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5580808080808081</v>
+        <v>0.5854377104377104</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5130759651307596</v>
+        <v>0.5347170333471704</v>
       </c>
       <c r="I131" t="n">
         <v>90</v>
@@ -4783,16 +4783,16 @@
         <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5621969217794645</v>
+        <v>0.5779271589130744</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5394538606403013</v>
+        <v>0.5441188746973872</v>
       </c>
       <c r="I132" t="n">
         <v>80</v>
@@ -4816,16 +4816,16 @@
         <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6030934343434343</v>
+        <v>0.5794034503711923</v>
       </c>
       <c r="G133" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H133" t="n">
-        <v>0.5870990607832713</v>
+        <v>0.5688865398167724</v>
       </c>
       <c r="I133" t="n">
         <v>80</v>
@@ -4849,16 +4849,16 @@
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5517012227538542</v>
+        <v>0.5654775604142692</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4864710452945747</v>
+        <v>0.5010264423813463</v>
       </c>
       <c r="I134" t="n">
         <v>80</v>
@@ -4951,13 +4951,13 @@
         <v>0.6161616161616161</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6429105873550318</v>
+        <v>0.6323768999290821</v>
       </c>
       <c r="G137" t="n">
         <v>0.6161616161616161</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5952144394767346</v>
+        <v>0.6022556069166238</v>
       </c>
       <c r="I137" t="n">
         <v>70</v>
@@ -4981,16 +4981,16 @@
         <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6251262626262627</v>
+        <v>0.6378490790255497</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6077441077441077</v>
+        <v>0.6168653533766157</v>
       </c>
       <c r="I138" t="n">
         <v>70</v>
@@ -5014,16 +5014,16 @@
         <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5193381180223285</v>
+        <v>0.6083916083916083</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="H139" t="n">
-        <v>0.464143699437817</v>
+        <v>0.5373106060606061</v>
       </c>
       <c r="I139" t="n">
         <v>70</v>
@@ -5050,13 +5050,13 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5877525252525253</v>
+        <v>0.7526283240568955</v>
       </c>
       <c r="G140" t="n">
         <v>0.5151515151515151</v>
       </c>
       <c r="H140" t="n">
-        <v>0.3770795414631031</v>
+        <v>0.361048321048321</v>
       </c>
       <c r="I140" t="n">
         <v>70</v>
@@ -5080,16 +5080,16 @@
         <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>0.494949494949495</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4892402283706632</v>
+        <v>0.4515492118231844</v>
       </c>
       <c r="G141" t="n">
-        <v>0.494949494949495</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4558682058682059</v>
+        <v>0.4326123018805946</v>
       </c>
       <c r="I141" t="n">
         <v>70</v>
@@ -5113,16 +5113,16 @@
         <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6471590909090909</v>
+        <v>0.5621969217794645</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6283891547049442</v>
+        <v>0.5394538606403013</v>
       </c>
       <c r="I142" t="n">
         <v>60</v>
@@ -5146,16 +5146,16 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5461479198767335</v>
+        <v>0.6625226625226626</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5412375481440526</v>
+        <v>0.6526629935720846</v>
       </c>
       <c r="I143" t="n">
         <v>60</v>
@@ -5179,16 +5179,16 @@
         <v>4</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5032795487340942</v>
+        <v>0.5400617622003164</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4635531314027488</v>
+        <v>0.4636369478474742</v>
       </c>
       <c r="I144" t="n">
         <v>60</v>
@@ -5245,16 +5245,16 @@
         <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5323363505181686</v>
+        <v>0.4671841568393292</v>
       </c>
       <c r="G146" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4854489219577387</v>
+        <v>0.4511784511784512</v>
       </c>
       <c r="I146" t="n">
         <v>60</v>
@@ -5278,16 +5278,16 @@
         <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5931943873120343</v>
+        <v>0.6300649515752491</v>
       </c>
       <c r="G147" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5754453915794931</v>
+        <v>0.5646945646945646</v>
       </c>
       <c r="I147" t="n">
         <v>50</v>
@@ -5311,16 +5311,16 @@
         <v>4</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5780885780885781</v>
+        <v>0.6224494289010418</v>
       </c>
       <c r="G148" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="H148" t="n">
-        <v>0.5709366391184573</v>
+        <v>0.6099449645961273</v>
       </c>
       <c r="I148" t="n">
         <v>50</v>
@@ -5344,16 +5344,16 @@
         <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5433469833469834</v>
+        <v>0.5029708853238265</v>
       </c>
       <c r="G149" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5049712469067308</v>
+        <v>0.4317246539468761</v>
       </c>
       <c r="I149" t="n">
         <v>50</v>
@@ -5377,16 +5377,16 @@
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5877525252525253</v>
+        <v>0.5026033531188171</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="H150" t="n">
-        <v>0.3770795414631031</v>
+        <v>0.3561101208160031</v>
       </c>
       <c r="I150" t="n">
         <v>50</v>
@@ -5410,16 +5410,16 @@
         <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5531370038412292</v>
+        <v>0.476010101010101</v>
       </c>
       <c r="G151" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5229151014274981</v>
+        <v>0.4481527604815276</v>
       </c>
       <c r="I151" t="n">
         <v>50</v>
